--- a/final_table.xlsx
+++ b/final_table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>item_name</t>
   </si>
@@ -25,30 +25,24 @@
     <t>Anshuman_cont</t>
   </si>
   <si>
+    <t>Ritesh_cont</t>
+  </si>
+  <si>
     <t>Rohan_cont</t>
   </si>
   <si>
-    <t>Ritesh_cont</t>
-  </si>
-  <si>
-    <t>Sourabh_cont</t>
-  </si>
-  <si>
     <t>Ashish_cont</t>
   </si>
   <si>
     <t>Anshuman_value</t>
   </si>
   <si>
+    <t>Ritesh_value</t>
+  </si>
+  <si>
     <t>Rohan_value</t>
   </si>
   <si>
-    <t>Ritesh_value</t>
-  </si>
-  <si>
-    <t>Sourabh_value</t>
-  </si>
-  <si>
     <t>Ashish_value</t>
   </si>
   <si>
@@ -70,13 +64,10 @@
     <t>6023 COFFEE DECAF FD</t>
   </si>
   <si>
-    <t>836067 PISTACHIOS SALTED</t>
+    <t>835067 PISTACHIOS SALTED</t>
   </si>
   <si>
     <t>42929 BREAD WHOLEMEAL</t>
-  </si>
-  <si>
-    <t>Tortilla</t>
   </si>
 </sst>
 </file>
@@ -434,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,16 +462,10 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>12</v>
       </c>
       <c r="B2">
         <v>1.55</v>
@@ -489,36 +474,30 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>-0.3875</v>
       </c>
       <c r="H2">
-        <v>-0.775</v>
+        <v>-0.3875</v>
       </c>
       <c r="I2">
-        <v>-0</v>
+        <v>-0.3875</v>
       </c>
       <c r="J2">
-        <v>-0.775</v>
-      </c>
-      <c r="K2">
-        <v>-0</v>
-      </c>
-      <c r="L2">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>-0.3875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>2.58</v>
@@ -527,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -536,27 +515,21 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>-0.645</v>
       </c>
       <c r="H3">
         <v>-0.645</v>
       </c>
       <c r="I3">
-        <v>-0</v>
+        <v>-0.645</v>
       </c>
       <c r="J3">
         <v>-0.645</v>
       </c>
-      <c r="K3">
-        <v>-0.645</v>
-      </c>
-      <c r="L3">
-        <v>-0.645</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>1.39</v>
@@ -565,7 +538,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -574,27 +547,21 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>-0.3475</v>
       </c>
       <c r="H4">
         <v>-0.3475</v>
       </c>
       <c r="I4">
-        <v>-0</v>
+        <v>-0.3475</v>
       </c>
       <c r="J4">
         <v>-0.3475</v>
       </c>
-      <c r="K4">
-        <v>-0.3475</v>
-      </c>
-      <c r="L4">
-        <v>-0.3475</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>1.04</v>
@@ -612,27 +579,21 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>-0.26</v>
       </c>
       <c r="H5">
-        <v>-0.208</v>
+        <v>-0.26</v>
       </c>
       <c r="I5">
-        <v>-0.208</v>
+        <v>-0.26</v>
       </c>
       <c r="J5">
-        <v>-0.208</v>
-      </c>
-      <c r="K5">
-        <v>-0.208</v>
-      </c>
-      <c r="L5">
-        <v>-0.208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>0.65</v>
@@ -641,36 +602,30 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>-0.1625</v>
       </c>
       <c r="H6">
-        <v>-0.65</v>
+        <v>-0.1625</v>
       </c>
       <c r="I6">
-        <v>-0</v>
+        <v>-0.1625</v>
       </c>
       <c r="J6">
-        <v>-0</v>
-      </c>
-      <c r="K6">
-        <v>-0</v>
-      </c>
-      <c r="L6">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>-0.1625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>1.19</v>
@@ -679,36 +634,30 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>-0.2975</v>
       </c>
       <c r="H7">
-        <v>-1.19</v>
+        <v>-0.2975</v>
       </c>
       <c r="I7">
-        <v>-0</v>
+        <v>-0.2975</v>
       </c>
       <c r="J7">
-        <v>-0</v>
-      </c>
-      <c r="K7">
-        <v>-0</v>
-      </c>
-      <c r="L7">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>-0.2975</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>1.99</v>
@@ -717,36 +666,30 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>-0.4975</v>
       </c>
       <c r="H8">
-        <v>-1.99</v>
+        <v>-0.4975</v>
       </c>
       <c r="I8">
-        <v>-0</v>
+        <v>-0.4975</v>
       </c>
       <c r="J8">
-        <v>-0</v>
-      </c>
-      <c r="K8">
-        <v>-0</v>
-      </c>
-      <c r="L8">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>-0.4975</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>0.75</v>
@@ -755,69 +698,25 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>-0.1875</v>
       </c>
       <c r="H9">
-        <v>-0.75</v>
+        <v>-0.1875</v>
       </c>
       <c r="I9">
-        <v>-0</v>
+        <v>-0.1875</v>
       </c>
       <c r="J9">
-        <v>-0</v>
-      </c>
-      <c r="K9">
-        <v>-0</v>
-      </c>
-      <c r="L9">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10">
-        <v>0.99</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>-0.99</v>
-      </c>
-      <c r="I10">
-        <v>-0</v>
-      </c>
-      <c r="J10">
-        <v>-0</v>
-      </c>
-      <c r="K10">
-        <v>-0</v>
-      </c>
-      <c r="L10">
-        <v>-0</v>
+        <v>-0.1875</v>
       </c>
     </row>
   </sheetData>
